--- a/Jetson-GPIO-mapping.xlsx
+++ b/Jetson-GPIO-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwagner/Documents/gis_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC8670-BC49-8C46-B5C4-AB3AA3A45B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7F31A-5D11-784B-9337-7F8042624209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TX2" sheetId="1" r:id="rId1"/>
@@ -1210,15 +1210,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
@@ -4258,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE70EDF4-8C89-8B45-9F0E-C6308AC8AA16}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
